--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2843908.821616808</v>
+        <v>2959525.210633713</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -668,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>128.8713497029021</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83532033605545</v>
+        <v>263.3828147651806</v>
       </c>
       <c r="H2" t="n">
-        <v>263.38281476518</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3507887739395</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2762171674037</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1482595335101</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.3828147651806</v>
       </c>
       <c r="W2" t="n">
-        <v>263.38281476518</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.38281476518</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>2.600960703264189</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -756,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94290942807546</v>
+        <v>43.94290942807541</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.19058462642701</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,19 +794,19 @@
         <v>194.8434583985096</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8545278323952</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>40.1197506350015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -820,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1660284180233</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>28.35923426327085</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2165417078037</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.38281476518</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>56.00208783352953</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -905,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>92.07720442932801</v>
       </c>
       <c r="G5" t="n">
-        <v>12.83417464571001</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>97.26234557100793</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="W5" t="n">
-        <v>263.7138800015061</v>
-      </c>
-      <c r="X5" t="n">
-        <v>263.7138800015061</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,10 +980,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -990,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,16 +1025,16 @@
         <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>167.9400990547192</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>79.22755959733803</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1041,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1069,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>212.610340866108</v>
       </c>
       <c r="Y7" t="n">
-        <v>58.64530091590787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>167.9868413818483</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>183.0915685513323</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>79.41653965146595</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>180.7712371865254</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1421,13 +1423,13 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1534,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>35.23631477519741</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,10 +1587,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>220.7930342327015</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1771,10 +1773,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>31.40247677522967</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>140.7215037338434</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2002,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>232.696128939274</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2090,10 +2092,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2242,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>109.090968037234</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2292,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>158.5850925444092</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2330,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695476</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2473,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>143.4157347120547</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2536,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>143.5476780877535</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187862</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986279</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229314</v>
+        <v>101.491279848495</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856563</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012177</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>278.2848243242664</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.5229983365911</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2801,13 +2803,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>42.54416032354898</v>
       </c>
       <c r="G31" t="n">
-        <v>56.10180801516521</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3038,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3187,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>18.50276072357119</v>
+        <v>87.61360486368905</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>134.1177455876061</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3484,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>95.25381996636061</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>71.79687029691044</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,13 +3714,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>67.99491930587938</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3895,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>142.4385057595946</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3910,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3951,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>103.8146543619973</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4037,7 +4039,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4150,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>108.9501037550976</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,10 +4197,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>20.66101211579047</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.0243432043931</v>
+        <v>533.8029011832571</v>
       </c>
       <c r="C2" t="n">
-        <v>307.0243432043931</v>
+        <v>533.8029011832571</v>
       </c>
       <c r="D2" t="n">
-        <v>307.0243432043931</v>
+        <v>533.8029011832571</v>
       </c>
       <c r="E2" t="n">
-        <v>307.0243432043931</v>
+        <v>533.8029011832571</v>
       </c>
       <c r="F2" t="n">
-        <v>300.0788424551896</v>
+        <v>403.6298206752751</v>
       </c>
       <c r="G2" t="n">
-        <v>287.11387241877</v>
+        <v>137.586573437719</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0706251812144</v>
+        <v>137.586573437719</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0706251812144</v>
+        <v>21.07062518121445</v>
       </c>
       <c r="J2" t="n">
-        <v>49.15993901467323</v>
+        <v>49.15993901467351</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9970572935559</v>
+        <v>141.9970572935565</v>
       </c>
       <c r="L2" t="n">
-        <v>294.0714735959967</v>
+        <v>294.0714735959976</v>
       </c>
       <c r="M2" t="n">
-        <v>494.9530007795969</v>
+        <v>494.9530007795985</v>
       </c>
       <c r="N2" t="n">
-        <v>703.6988094670317</v>
+        <v>703.6988094670337</v>
       </c>
       <c r="O2" t="n">
-        <v>887.4762960288936</v>
+        <v>887.4762960288958</v>
       </c>
       <c r="P2" t="n">
-        <v>1009.825128108066</v>
+        <v>1009.825128108068</v>
       </c>
       <c r="Q2" t="n">
-        <v>1053.53125906072</v>
+        <v>1053.531259060723</v>
       </c>
       <c r="R2" t="n">
-        <v>1053.53125906072</v>
+        <v>1053.531259060723</v>
       </c>
       <c r="S2" t="n">
-        <v>1053.53125906072</v>
+        <v>1053.531259060723</v>
       </c>
       <c r="T2" t="n">
-        <v>839.1108376795041</v>
+        <v>1053.531259060723</v>
       </c>
       <c r="U2" t="n">
-        <v>839.1108376795041</v>
+        <v>799.8461484208133</v>
       </c>
       <c r="V2" t="n">
-        <v>839.1108376795041</v>
+        <v>533.8029011832571</v>
       </c>
       <c r="W2" t="n">
-        <v>573.0675904419486</v>
+        <v>533.8029011832571</v>
       </c>
       <c r="X2" t="n">
-        <v>307.0243432043931</v>
+        <v>533.8029011832571</v>
       </c>
       <c r="Y2" t="n">
-        <v>307.0243432043931</v>
+        <v>533.8029011832571</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>211.9919603544056</v>
+        <v>373.6292670479974</v>
       </c>
       <c r="C3" t="n">
-        <v>211.9919603544056</v>
+        <v>373.6292670479974</v>
       </c>
       <c r="D3" t="n">
-        <v>211.9919603544056</v>
+        <v>224.6948573867461</v>
       </c>
       <c r="E3" t="n">
-        <v>211.9919603544056</v>
+        <v>65.45740238129062</v>
       </c>
       <c r="F3" t="n">
         <v>65.45740238129062</v>
@@ -4404,55 +4406,55 @@
         <v>65.45740238129062</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0706251812144</v>
+        <v>21.07062518121445</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0706251812144</v>
+        <v>117.0004092799683</v>
       </c>
       <c r="K3" t="n">
-        <v>95.65665001371029</v>
+        <v>191.5864341124644</v>
       </c>
       <c r="L3" t="n">
-        <v>242.2693060433168</v>
+        <v>338.1990901420713</v>
       </c>
       <c r="M3" t="n">
-        <v>432.7162285299028</v>
+        <v>528.6460126286577</v>
       </c>
       <c r="N3" t="n">
-        <v>642.6123592779518</v>
+        <v>738.542143376707</v>
       </c>
       <c r="O3" t="n">
-        <v>812.4065171760976</v>
+        <v>908.3363012748532</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.278016062219</v>
+        <v>1025.278016062221</v>
       </c>
       <c r="Q3" t="n">
-        <v>1053.53125906072</v>
+        <v>1053.531259060723</v>
       </c>
       <c r="R3" t="n">
-        <v>1053.53125906072</v>
+        <v>1035.156931155241</v>
       </c>
       <c r="S3" t="n">
-        <v>1053.53125906072</v>
+        <v>1035.156931155241</v>
       </c>
       <c r="T3" t="n">
-        <v>856.7196849208112</v>
+        <v>838.345357015332</v>
       </c>
       <c r="U3" t="n">
-        <v>628.5837982214222</v>
+        <v>838.345357015332</v>
       </c>
       <c r="V3" t="n">
-        <v>628.5837982214222</v>
+        <v>838.345357015332</v>
       </c>
       <c r="W3" t="n">
-        <v>628.5837982214222</v>
+        <v>584.1080002871304</v>
       </c>
       <c r="X3" t="n">
-        <v>420.7322980158893</v>
+        <v>376.2565000815976</v>
       </c>
       <c r="Y3" t="n">
-        <v>380.2072973744737</v>
+        <v>376.2565000815976</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>294.5872932986241</v>
+        <v>168.9837187636076</v>
       </c>
       <c r="C4" t="n">
-        <v>294.5872932986241</v>
+        <v>168.9837187636076</v>
       </c>
       <c r="D4" t="n">
-        <v>144.4706538862884</v>
+        <v>168.9837187636076</v>
       </c>
       <c r="E4" t="n">
-        <v>144.4706538862884</v>
+        <v>21.07062518121445</v>
       </c>
       <c r="F4" t="n">
-        <v>144.4706538862884</v>
+        <v>21.07062518121445</v>
       </c>
       <c r="G4" t="n">
-        <v>144.4706538862884</v>
+        <v>21.07062518121445</v>
       </c>
       <c r="H4" t="n">
-        <v>144.4706538862884</v>
+        <v>21.07062518121445</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0706251812144</v>
+        <v>21.07062518121445</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0706251812144</v>
+        <v>21.07062518121445</v>
       </c>
       <c r="K4" t="n">
-        <v>125.4984182940699</v>
+        <v>126.3277805481199</v>
       </c>
       <c r="L4" t="n">
-        <v>315.717772996435</v>
+        <v>316.5471352504852</v>
       </c>
       <c r="M4" t="n">
-        <v>526.666534903032</v>
+        <v>527.4958971570824</v>
       </c>
       <c r="N4" t="n">
-        <v>738.0340231670093</v>
+        <v>738.0340231670115</v>
       </c>
       <c r="O4" t="n">
-        <v>917.2498138836287</v>
+        <v>917.2498138836311</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.079201097371</v>
+        <v>1047.079201097373</v>
       </c>
       <c r="Q4" t="n">
-        <v>1053.53125906072</v>
+        <v>1053.531259060723</v>
       </c>
       <c r="R4" t="n">
-        <v>1053.53125906072</v>
+        <v>1053.531259060723</v>
       </c>
       <c r="S4" t="n">
-        <v>1053.53125906072</v>
+        <v>1024.885567885701</v>
       </c>
       <c r="T4" t="n">
-        <v>1053.53125906072</v>
+        <v>799.4143136353947</v>
       </c>
       <c r="U4" t="n">
-        <v>1053.53125906072</v>
+        <v>799.4143136353947</v>
       </c>
       <c r="V4" t="n">
-        <v>798.8467708548332</v>
+        <v>799.4143136353947</v>
       </c>
       <c r="W4" t="n">
-        <v>532.8035236172775</v>
+        <v>799.4143136353947</v>
       </c>
       <c r="X4" t="n">
-        <v>476.2357581288638</v>
+        <v>571.4247627373774</v>
       </c>
       <c r="Y4" t="n">
-        <v>476.2357581288638</v>
+        <v>350.6321835938472</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>157.4777567984221</v>
+        <v>380.4820441686398</v>
       </c>
       <c r="C5" t="n">
-        <v>157.4777567984221</v>
+        <v>380.4820441686398</v>
       </c>
       <c r="D5" t="n">
-        <v>157.4777567984221</v>
+        <v>380.4820441686398</v>
       </c>
       <c r="E5" t="n">
-        <v>157.4777567984221</v>
+        <v>380.4820441686398</v>
       </c>
       <c r="F5" t="n">
-        <v>150.5322560492186</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="G5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
         <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
         <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991315</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358411</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4592,25 +4594,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>956.6107264999559</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T5" t="n">
-        <v>956.6107264999559</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U5" t="n">
-        <v>956.6107264999559</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="V5" t="n">
-        <v>690.233069932778</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="W5" t="n">
-        <v>423.8554133656</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="X5" t="n">
-        <v>157.4777567984221</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="Y5" t="n">
-        <v>157.4777567984221</v>
+        <v>380.4820441686398</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.09711040012049</v>
+        <v>474.1185955443175</v>
       </c>
       <c r="C6" t="n">
-        <v>21.09711040012049</v>
+        <v>474.1185955443175</v>
       </c>
       <c r="D6" t="n">
-        <v>21.09711040012049</v>
+        <v>325.1841858830662</v>
       </c>
       <c r="E6" t="n">
-        <v>21.09711040012049</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I6" t="n">
         <v>21.09711040012049</v>
@@ -4647,19 +4649,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290001</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4671,25 +4673,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>887.8833378166544</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>887.8833378166544</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>718.2468741250188</v>
+        <v>808.3837902496282</v>
       </c>
       <c r="V6" t="n">
-        <v>483.0947658932761</v>
+        <v>728.3559522725191</v>
       </c>
       <c r="W6" t="n">
-        <v>228.8574091650744</v>
+        <v>474.1185955443175</v>
       </c>
       <c r="X6" t="n">
-        <v>228.8574091650744</v>
+        <v>474.1185955443175</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.09711040012049</v>
+        <v>474.1185955443175</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.09711040012049</v>
+        <v>190.2429270008669</v>
       </c>
       <c r="C7" t="n">
-        <v>21.09711040012049</v>
+        <v>190.2429270008669</v>
       </c>
       <c r="D7" t="n">
-        <v>21.09711040012049</v>
+        <v>190.2429270008669</v>
       </c>
       <c r="E7" t="n">
-        <v>21.09711040012049</v>
+        <v>190.2429270008669</v>
       </c>
       <c r="F7" t="n">
-        <v>21.09711040012049</v>
+        <v>190.2429270008669</v>
       </c>
       <c r="G7" t="n">
-        <v>21.09711040012049</v>
+        <v>190.2429270008669</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4749,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="T7" t="n">
-        <v>829.3864837640389</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="U7" t="n">
-        <v>563.0088271968609</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="V7" t="n">
-        <v>308.3243389909741</v>
+        <v>671.3785036348206</v>
       </c>
       <c r="W7" t="n">
-        <v>308.3243389909741</v>
+        <v>405.0008470676427</v>
       </c>
       <c r="X7" t="n">
-        <v>80.33478809295673</v>
+        <v>190.2429270008669</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.09711040012049</v>
+        <v>190.2429270008669</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1822.970833065919</v>
+        <v>1617.332751740275</v>
       </c>
       <c r="C8" t="n">
-        <v>1454.008316125507</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D8" t="n">
-        <v>1095.742617518757</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E8" t="n">
-        <v>709.9543649205125</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F8" t="n">
-        <v>298.9684601309049</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>287.3041138955979</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4835,19 +4837,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2377.398350065476</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2377.398350065476</v>
       </c>
       <c r="W8" t="n">
-        <v>2209.570673130041</v>
+        <v>2377.398350065476</v>
       </c>
       <c r="X8" t="n">
-        <v>2209.570673130041</v>
+        <v>2003.932591804396</v>
       </c>
       <c r="Y8" t="n">
-        <v>2209.570673130041</v>
+        <v>2003.932591804396</v>
       </c>
     </row>
     <row r="9">
@@ -4863,40 +4865,40 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>423.148951518066</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495377</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M9" t="n">
-        <v>1352.031492328576</v>
+        <v>1140.868925009994</v>
       </c>
       <c r="N9" t="n">
-        <v>1739.316620925521</v>
+        <v>1528.15405360694</v>
       </c>
       <c r="O9" t="n">
-        <v>2071.387056101683</v>
+        <v>1860.224488783102</v>
       </c>
       <c r="P9" t="n">
         <v>2422.685363568936</v>
@@ -4914,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4936,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>516.834961214797</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C10" t="n">
-        <v>347.89877828689</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D10" t="n">
-        <v>347.89877828689</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4987,25 +4989,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234358</v>
+        <v>1556.227393153825</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.838891429094</v>
+        <v>1333.24891234856</v>
       </c>
       <c r="U10" t="n">
-        <v>1034.241682149775</v>
+        <v>1044.130574852398</v>
       </c>
       <c r="V10" t="n">
-        <v>1034.241682149775</v>
+        <v>789.4460866465112</v>
       </c>
       <c r="W10" t="n">
-        <v>744.8245121128143</v>
+        <v>500.0289166095505</v>
       </c>
       <c r="X10" t="n">
-        <v>516.834961214797</v>
+        <v>272.0393657115332</v>
       </c>
       <c r="Y10" t="n">
-        <v>516.834961214797</v>
+        <v>51.24678656800311</v>
       </c>
     </row>
     <row r="11">
@@ -5027,10 +5029,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5039,13 +5041,13 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5075,7 +5077,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5115,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N12" t="n">
-        <v>1964.511902868375</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>443.4949469776664</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>443.4949469776664</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>296.604999479756</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>129.4089001946359</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>129.4089001946359</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1465.362586952987</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1237.37303605497</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>1016.58045691144</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5273,28 +5275,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5303,22 +5305,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5358,22 +5360,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N15" t="n">
-        <v>1671.859558793925</v>
+        <v>1368.154262550759</v>
       </c>
       <c r="O15" t="n">
-        <v>2223.769289033212</v>
+        <v>1920.063992790046</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2343.687142285114</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832229</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>634.927936255316</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429803</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2415.243410069927</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2232.388575724832</v>
+        <v>2237.774446768175</v>
       </c>
       <c r="T16" t="n">
-        <v>2012.787110747773</v>
+        <v>2018.172981791116</v>
       </c>
       <c r="U16" t="n">
-        <v>1723.711884091971</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="V16" t="n">
-        <v>1723.711884091971</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W16" t="n">
-        <v>1434.29471405501</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>1206.305163156993</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134626</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5506,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5546,16 +5548,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,28 +5594,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1140.291933891999</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.889897446606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>634.9279362553159</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1809.460189369951</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1554.775701164064</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1265.358531127103</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1037.368980229086</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>816.5764010855556</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075809</v>
@@ -5762,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.913939313768</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P21" t="n">
         <v>2516.421633107662</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>929.7309773356194</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>432.9862109052757</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>286.0962634073653</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2103.921287069095</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1814.846060413293</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1560.161572207406</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1560.161572207406</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1332.172021309389</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>1111.379442165859</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,43 +5977,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
         <v>4606.285157492579</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1337.934786622704</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N24" t="n">
-        <v>1965.532750177311</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O24" t="n">
-        <v>2517.442480416598</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2517.442480416598</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2517.442480416598</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2939.372134388645</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>2939.372134388645</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>2794.50775589162</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>2646.594662309227</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>2646.594662309227</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>2479.398563024107</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328842</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.25592267304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V25" t="n">
-        <v>3677.571434467153</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W25" t="n">
-        <v>3388.154264430193</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X25" t="n">
-        <v>3160.164713532175</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y25" t="n">
-        <v>2939.372134388645</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,61 +6214,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192622</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>2231.588527385792</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>2565.513299557012</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>2913.946970978148</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M27" t="n">
-        <v>3511.3254586047</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N27" t="n">
-        <v>4138.923422159307</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O27" t="n">
-        <v>4690.833152398594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>4690.833152398594</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3175.34112979674</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C28" t="n">
-        <v>3006.404946868834</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="D28" t="n">
-        <v>2856.288307456498</v>
+        <v>653.1541313646961</v>
       </c>
       <c r="E28" t="n">
-        <v>2708.375213874105</v>
+        <v>505.241037782303</v>
       </c>
       <c r="F28" t="n">
-        <v>2561.485266376194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376194</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.92275029663</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3940.235367183118</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3685.550878977231</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3396.13370894027</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X28" t="n">
-        <v>3396.13370894027</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y28" t="n">
-        <v>3175.34112979674</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,55 +6451,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
         <v>3467.980956852889</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1337.934786622704</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1965.532750177311</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2517.442480416598</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2517.442480416598</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>988.1395539230176</v>
+        <v>3006.417838136243</v>
       </c>
       <c r="C31" t="n">
-        <v>819.2033709951107</v>
+        <v>2837.481655208336</v>
       </c>
       <c r="D31" t="n">
-        <v>669.086731582775</v>
+        <v>2837.481655208336</v>
       </c>
       <c r="E31" t="n">
-        <v>521.1736380003819</v>
+        <v>2689.568561625942</v>
       </c>
       <c r="F31" t="n">
-        <v>374.2836905024715</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487568</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.987318831765</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="W31" t="n">
-        <v>1618.570148794805</v>
+        <v>3455.19996817779</v>
       </c>
       <c r="X31" t="n">
-        <v>1390.580597896787</v>
+        <v>3227.210417279773</v>
       </c>
       <c r="Y31" t="n">
-        <v>1169.788018753257</v>
+        <v>3006.417838136243</v>
       </c>
     </row>
     <row r="32">
@@ -6680,10 +6682,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6698,10 +6700,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6731,16 +6733,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6777,28 +6779,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>784.5811134804959</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C34" t="n">
-        <v>615.644930552589</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D34" t="n">
-        <v>465.5282911402533</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E34" t="n">
-        <v>317.6151975578601</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1415.011708352283</v>
+        <v>1412.248478625014</v>
       </c>
       <c r="X34" t="n">
-        <v>1187.022157454266</v>
+        <v>1184.258927726996</v>
       </c>
       <c r="Y34" t="n">
-        <v>966.2295783107356</v>
+        <v>963.4663485834661</v>
       </c>
     </row>
     <row r="35">
@@ -6914,70 +6916,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>788.0191461778176</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C37" t="n">
         <v>788.0191461778176</v>
@@ -7081,64 +7083,64 @@
         <v>489.9894131830887</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X37" t="n">
-        <v>1144.284195611859</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y37" t="n">
-        <v>923.4916164683287</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7166,46 +7168,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C39" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D39" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>2381.235169913445</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>2381.235169913445</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>2876.560776129204</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>3473.939263755756</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>4101.537227310362</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O39" t="n">
-        <v>4653.44695754965</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P39" t="n">
-        <v>4653.44695754965</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S39" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T39" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U39" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V39" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W39" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X39" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y39" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>948.5505208511905</v>
+        <v>800.5007694647281</v>
       </c>
       <c r="C40" t="n">
-        <v>779.6143379232836</v>
+        <v>631.5645865368213</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>481.4479471244855</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>333.5348535420924</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
         <v>826.1405381797747</v>
@@ -7360,22 +7362,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V40" t="n">
-        <v>1686.749820929699</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W40" t="n">
-        <v>1397.332650892738</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X40" t="n">
-        <v>1169.343099994721</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y40" t="n">
-        <v>948.5505208511905</v>
+        <v>982.1492342949679</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,61 +7399,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111706</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>923.4916164683287</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C43" t="n">
-        <v>923.4916164683287</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7597,22 +7599,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X43" t="n">
-        <v>1144.284195611859</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y43" t="n">
-        <v>923.4916164683287</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,10 +7636,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797189</v>
@@ -7649,10 +7651,10 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>2233.355914590559</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
-        <v>2383.002557118214</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>2716.927329289435</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>3212.252935505193</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>3809.631423131745</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N45" t="n">
-        <v>4437.229386686352</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O45" t="n">
-        <v>4437.229386686352</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P45" t="n">
-        <v>4437.229386686352</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>4670.491047061235</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>984.9192356072721</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C46" t="n">
-        <v>815.9830526793652</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D46" t="n">
-        <v>665.8664132670294</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E46" t="n">
-        <v>517.9533196846363</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F46" t="n">
-        <v>371.0633721867259</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>203.8672729016059</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797189</v>
@@ -7828,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.70136564882</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.711814750802</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y46" t="n">
-        <v>984.9192356072721</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.5916434387731</v>
+        <v>60.59164343877293</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.109135423079593</v>
+        <v>99.00790724000257</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8073,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>96.89877181692276</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8137,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>105.9060266940971</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8146,7 +8148,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444618</v>
+        <v>170.9799771939078</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8295,7 +8297,7 @@
         <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8538,7 +8540,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179983</v>
+        <v>186.449012614385</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>105.1672460959152</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>-1.136594450213864e-12</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -23422,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>46.02952154336811</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>65.72996410388953</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23659,10 +23661,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.97276993489202</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>40.30478226780122</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>65.54986409393022</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>53.48834544997013</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>56.43317025503488</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>58.82035778287911</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>5.199738306157656</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>142.9753202488375</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819374</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>43.92976817443622</v>
       </c>
       <c r="G28" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>7.899650064977834</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890373</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>102.8768876993823</v>
       </c>
       <c r="G31" t="n">
-        <v>109.4223302771036</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25075,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>268.0202376130198</v>
+        <v>198.909393472902</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>45.71423459433123</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>191.2691783702304</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>73.6241777260208</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,13 +25602,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>184.1427240179486</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>6.176967258617708</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>114.7699989900974</v>
       </c>
     </row>
     <row r="44">
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>31.34460909112622</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26083,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>205.0486432732467</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>738020.8750562395</v>
+        <v>738020.8750562394</v>
       </c>
     </row>
     <row r="8">
@@ -26311,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.504384641</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846407</v>
       </c>
       <c r="E2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="F2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="F2" t="n">
-        <v>686074.6097365057</v>
-      </c>
       <c r="G2" t="n">
-        <v>686074.6097365052</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="H2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="I2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="J2" t="n">
         <v>686074.6097365058</v>
       </c>
-      <c r="J2" t="n">
-        <v>686074.6097365055</v>
-      </c>
       <c r="K2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="L2" t="n">
         <v>686074.6097365054</v>
@@ -26347,13 +26349,13 @@
         <v>686074.6097365054</v>
       </c>
       <c r="N2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="O2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365055</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679702.4124909289</v>
+        <v>679702.4124909297</v>
       </c>
       <c r="C3" t="n">
-        <v>366.4703680946263</v>
+        <v>366.4703680938032</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059434</v>
+        <v>391128.3638059436</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68912.53318642075</v>
+        <v>68912.53318642091</v>
       </c>
       <c r="K3" t="n">
-        <v>85.20559774275981</v>
+        <v>85.205597742625</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756968</v>
+        <v>95382.64613756974</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>253116.5477674032</v>
+        <v>253116.547767403</v>
       </c>
       <c r="C4" t="n">
         <v>253016.7649073352</v>
       </c>
       <c r="D4" t="n">
-        <v>142746.9572676995</v>
+        <v>142746.9572676994</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181808</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.9201818181</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
+        <v>12386.92018181815</v>
+      </c>
+      <c r="J4" t="n">
         <v>12386.92018181813</v>
       </c>
-      <c r="J4" t="n">
-        <v>12386.92018181802</v>
-      </c>
       <c r="K4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
         <v>12386.92018181813</v>
@@ -26451,7 +26453,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="N4" t="n">
-        <v>12386.92018181804</v>
+        <v>12386.92018181807</v>
       </c>
       <c r="O4" t="n">
         <v>12386.92018181813</v>
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63021.46164557685</v>
+        <v>63021.4616455769</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-297954.9175192679</v>
+        <v>-297954.9175192687</v>
       </c>
       <c r="C6" t="n">
-        <v>381454.4659049449</v>
+        <v>381454.4659049456</v>
       </c>
       <c r="D6" t="n">
-        <v>71072.41087115314</v>
+        <v>71072.41087115298</v>
       </c>
       <c r="E6" t="n">
-        <v>65079.71810623423</v>
+        <v>65079.71810623427</v>
       </c>
       <c r="F6" t="n">
-        <v>572565.1597307805</v>
+        <v>572565.1597307806</v>
       </c>
       <c r="G6" t="n">
-        <v>572565.1597307801</v>
+        <v>572565.1597307804</v>
       </c>
       <c r="H6" t="n">
-        <v>572565.1597307804</v>
+        <v>572565.1597307806</v>
       </c>
       <c r="I6" t="n">
-        <v>572565.1597307806</v>
+        <v>572565.1597307802</v>
       </c>
       <c r="J6" t="n">
         <v>503652.6265443597</v>
       </c>
       <c r="K6" t="n">
-        <v>572479.9541330375</v>
+        <v>572479.9541330379</v>
       </c>
       <c r="L6" t="n">
-        <v>477182.5135932105</v>
+        <v>477182.5135932104</v>
       </c>
       <c r="M6" t="n">
         <v>439957.8660018535</v>
       </c>
       <c r="N6" t="n">
-        <v>572565.1597307806</v>
+        <v>572565.1597307802</v>
       </c>
       <c r="O6" t="n">
+        <v>572565.1597307805</v>
+      </c>
+      <c r="P6" t="n">
         <v>572565.1597307804</v>
-      </c>
-      <c r="P6" t="n">
-        <v>572565.1597307802</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960508</v>
+        <v>613.7700232960515</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.38281476518</v>
+        <v>263.3828147651806</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,28 +26807,28 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="O4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099649</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26957,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960508</v>
+        <v>613.7700232960515</v>
       </c>
       <c r="C3" t="n">
-        <v>0.284990473427456</v>
+        <v>0.2849904734267739</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480609</v>
+        <v>320.0098783480611</v>
       </c>
       <c r="E3" t="n">
         <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26993,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.38281476518</v>
+        <v>263.3828147651806</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3310652363261397</v>
+        <v>0.3310652363255144</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.38281476518</v>
+        <v>263.3828147651806</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363261397</v>
+        <v>0.3310652363255144</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985324</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.38281476518</v>
+        <v>263.3828147651806</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363261397</v>
+        <v>0.3310652363255144</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>278.0046960388094</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>149.4525055708748</v>
       </c>
       <c r="H2" t="n">
-        <v>50.82255116533821</v>
+        <v>314.2053659305182</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3507887739396</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,19 +27432,19 @@
         <v>152.7938006179689</v>
       </c>
       <c r="T2" t="n">
-        <v>0.01851369530669444</v>
+        <v>212.2947308627104</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1482595335101</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.36944370495428</v>
       </c>
       <c r="W2" t="n">
-        <v>85.85815395223301</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.348285913289</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,25 +27457,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>163.9322229466032</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0233325848003</v>
       </c>
       <c r="H3" t="n">
-        <v>99.4852405450068</v>
+        <v>99.48524054500679</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27503,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.19058462642711</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.161321588189</v>
@@ -27512,19 +27514,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8545278323952</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>165.5629451423029</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27540,10 +27542,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,10 +27557,10 @@
         <v>152.3867285273816</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1660284180232</v>
       </c>
       <c r="J4" t="n">
-        <v>15.1085330482566</v>
+        <v>15.10853304825652</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,25 +27587,25 @@
         <v>127.5277104718864</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7281204196193</v>
+        <v>176.3688861563485</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2165417078037</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586585345273</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>23.140183571411</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>169.7075675555076</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27625,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>314.7988413123834</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>55.50534762821434</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>64.03837846862876</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27698,10 +27700,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27710,10 +27712,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,16 +27745,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>57.91438844883547</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>153.5730275520872</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27761,7 +27763,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27789,13 +27791,13 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>22.54475050117134</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>13.09931452292912</v>
       </c>
       <c r="Y7" t="n">
-        <v>159.9393524361869</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,19 +27858,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>133.031711180557</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,16 +27909,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>67.95368157712969</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,13 +28013,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,7 +28028,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28059,16 +28061,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>115.2459207102715</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>105.4559169346752</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29086,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>5.519365296858341e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467417179079599</v>
+        <v>2.467417179079602</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26943618524895</v>
+        <v>25.26943618524898</v>
       </c>
       <c r="I2" t="n">
-        <v>95.12510079646634</v>
+        <v>95.12510079646646</v>
       </c>
       <c r="J2" t="n">
-        <v>209.4189488029073</v>
+        <v>209.4189488029076</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8647179933469</v>
+        <v>313.8647179933472</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3769364876042</v>
+        <v>389.3769364876046</v>
       </c>
       <c r="M2" t="n">
-        <v>433.256866746061</v>
+        <v>433.2568667460615</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2674158061209</v>
+        <v>440.2674158061214</v>
       </c>
       <c r="O2" t="n">
-        <v>415.7320362316482</v>
+        <v>415.7320362316486</v>
       </c>
       <c r="P2" t="n">
-        <v>354.8176746231205</v>
+        <v>354.8176746231209</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4532968973323</v>
+        <v>266.4532968973326</v>
       </c>
       <c r="R2" t="n">
-        <v>154.993894375359</v>
+        <v>154.9938943753592</v>
       </c>
       <c r="S2" t="n">
-        <v>56.22626896827643</v>
+        <v>56.22626896827649</v>
       </c>
       <c r="T2" t="n">
-        <v>10.80111870142095</v>
+        <v>10.80111870142096</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973933743263679</v>
+        <v>0.1973933743263681</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320184578410373</v>
+        <v>1.320184578410375</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75020369148966</v>
+        <v>12.75020369148968</v>
       </c>
       <c r="I3" t="n">
-        <v>45.45372342333962</v>
+        <v>45.45372342333967</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7284912435871</v>
+        <v>124.7284912435872</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1808579970821</v>
+        <v>213.1808579970823</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6479717289717</v>
+        <v>286.647971728972</v>
       </c>
       <c r="M3" t="n">
-        <v>334.5046626963476</v>
+        <v>334.504662696348</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3580057682313</v>
+        <v>343.3580057682317</v>
       </c>
       <c r="O3" t="n">
-        <v>314.105494846612</v>
+        <v>314.1054948466123</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0973516439949</v>
+        <v>252.0973516439952</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5204033774365</v>
+        <v>168.5204033774367</v>
       </c>
       <c r="R3" t="n">
-        <v>81.96724952621602</v>
+        <v>81.96724952621612</v>
       </c>
       <c r="S3" t="n">
-        <v>24.52184951564881</v>
+        <v>24.52184951564884</v>
       </c>
       <c r="T3" t="n">
-        <v>5.321270296311986</v>
+        <v>5.321270296311992</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08685424857962987</v>
+        <v>0.08685424857962996</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.10679840266501</v>
+        <v>1.106798402665011</v>
       </c>
       <c r="H4" t="n">
-        <v>9.840443980058001</v>
+        <v>9.840443980058012</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28444650923502</v>
+        <v>33.28444650923506</v>
       </c>
       <c r="J4" t="n">
-        <v>78.25064706841617</v>
+        <v>78.25064706841626</v>
       </c>
       <c r="K4" t="n">
-        <v>128.5898507823529</v>
+        <v>128.589850782353</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5507370653052</v>
+        <v>164.5507370653054</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4956805195705</v>
+        <v>173.4956805195707</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3703410187283</v>
+        <v>169.3703410187285</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4409233148689</v>
+        <v>156.440923314869</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8622359005026</v>
+        <v>133.8622359005027</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.67927351770366</v>
+        <v>92.67927351770378</v>
       </c>
       <c r="R4" t="n">
-        <v>49.76568090528305</v>
+        <v>49.76568090528311</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28847761735293</v>
+        <v>19.28847761735295</v>
       </c>
       <c r="T4" t="n">
-        <v>4.729047720477767</v>
+        <v>4.729047720477772</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06037082196354604</v>
+        <v>0.06037082196354611</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31841,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>301.1823051500296</v>
       </c>
       <c r="N12" t="n">
-        <v>426.9501404413636</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32078,25 +32080,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>193.964997009853</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>314.4610577451606</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
@@ -32312,7 +32314,7 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422586</v>
@@ -32321,22 +32323,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>361.5531172119652</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>368.6279838366847</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,22 +32554,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>300.5543663814921</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>399.0581126127094</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32578,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>181.6580975439405</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>490.5075832355669</v>
+        <v>570.6116741576916</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>175.960367665998</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>409.0029787211721</v>
       </c>
       <c r="N33" t="n">
-        <v>526.2989357561996</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175688</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>528.6300513467554</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33974,7 +33976,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473073</v>
@@ -33983,7 +33985,7 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437244</v>
@@ -33992,10 +33994,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>177.745607266772</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34205,34 +34207,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>324.9782573297443</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>379.4203056753698</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34381,7 +34383,7 @@
         <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236508</v>
@@ -34442,7 +34444,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,22 +34456,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>416.4300581532619</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>166.2270851128119</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.37304427622104</v>
+        <v>28.37304427622129</v>
       </c>
       <c r="K2" t="n">
-        <v>93.77486694836631</v>
+        <v>93.77486694836665</v>
       </c>
       <c r="L2" t="n">
-        <v>153.610521517617</v>
+        <v>153.6105215176174</v>
       </c>
       <c r="M2" t="n">
-        <v>202.9106335187883</v>
+        <v>202.9106335187887</v>
       </c>
       <c r="N2" t="n">
-        <v>210.85435220953</v>
+        <v>210.8543522095305</v>
       </c>
       <c r="O2" t="n">
-        <v>185.6338248099615</v>
+        <v>185.6338248099619</v>
       </c>
       <c r="P2" t="n">
-        <v>123.584678867851</v>
+        <v>123.5846788678514</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.1476070228828</v>
+        <v>44.14760702288308</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>96.89877181692312</v>
       </c>
       <c r="K3" t="n">
-        <v>75.33941902272312</v>
+        <v>75.33941902272335</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0935919490975</v>
+        <v>148.0935919490978</v>
       </c>
       <c r="M3" t="n">
-        <v>192.3706287743293</v>
+        <v>192.3706287743297</v>
       </c>
       <c r="N3" t="n">
-        <v>212.016293684898</v>
+        <v>212.0162936848984</v>
       </c>
       <c r="O3" t="n">
-        <v>171.5092504021675</v>
+        <v>171.5092504021679</v>
       </c>
       <c r="P3" t="n">
-        <v>215.0217160465874</v>
+        <v>118.122944229665</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.53862929141494</v>
+        <v>28.53862929141513</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>105.4826193059146</v>
+        <v>106.3203589564702</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1407623256213</v>
+        <v>192.1407623256215</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0795574814111</v>
+        <v>213.0795574814113</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5025133979569</v>
+        <v>212.6647737474031</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0260512289085</v>
+        <v>181.0260512289087</v>
       </c>
       <c r="P4" t="n">
-        <v>131.140795165396</v>
+        <v>131.1407951653962</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.517230266009278</v>
+        <v>6.517230266009392</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35015,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L6" t="n">
         <v>148.2266905659562</v>
@@ -35030,7 +35032,7 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>215.5616691250133</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
         <v>28.61687799649638</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>640.5848321000387</v>
+        <v>553.3803448964255</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>354.8467752194474</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>159.0482712280113</v>
       </c>
       <c r="N12" t="n">
-        <v>295.6084283580303</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35726,25 +35728,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>59.99058959552271</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>174.4792836591391</v>
       </c>
       <c r="R15" t="n">
         <v>37.00975247789211</v>
@@ -35896,7 +35898,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243148</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35969,22 +35971,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>219.4190832899469</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="O18" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>161.9999866016179</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>265.0837051983791</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>35.9785935799765</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>351.9532034556927</v>
+        <v>432.0572943778175</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36762,16 +36764,16 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>35.9785935799765</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>266.8689447991538</v>
       </c>
       <c r="N33" t="n">
-        <v>394.9572236728663</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902961</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>397.2883392634221</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37540,13 +37542,13 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K38" t="n">
         <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462666</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
         <v>735.300110790295</v>
@@ -37622,7 +37624,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.3288951674331</v>
@@ -37631,7 +37633,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O39" t="n">
         <v>557.48457599928</v>
@@ -37640,10 +37642,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>37.76383318075048</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>187.1368183553853</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38029,7 +38031,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683813</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,22 +38104,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>20.54758114884798</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2959525.210633713</v>
+        <v>2955220.893585471</v>
       </c>
     </row>
     <row r="7">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>263.3828147651822</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>128.8713497029021</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>263.3828147651806</v>
+        <v>20.28958724569676</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3507887739395</v>
+        <v>115.3507887739393</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7938006179687</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2947308627104</v>
       </c>
       <c r="U2" t="n">
         <v>251.1482595335101</v>
       </c>
       <c r="V2" t="n">
-        <v>263.3828147651806</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.600960703264189</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>89.89839313998503</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94290942807541</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.19058462642701</v>
+        <v>18.19058462642687</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1613215881889</v>
       </c>
       <c r="T3" t="n">
         <v>194.8434583985096</v>
@@ -797,13 +797,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -819,19 +819,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.8935561720897303</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.10853304825638</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>28.35923426327085</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2165417078037</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>92.07720442932801</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>263.7138800015061</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>122.6622323399416</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -986,16 +986,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>79.22755959733803</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>10.18456372565635</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>238.6463170285973</v>
       </c>
       <c r="X7" t="n">
-        <v>212.610340866108</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>278.5122704701474</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>183.0915685513323</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,25 +1293,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.89148327532398</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>79.41653965146595</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701358</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>35.23631477519741</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146491</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1672,10 +1672,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>140.7215037338434</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1824,10 +1824,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>109.090968037234</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695476</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>62.14989839348819</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2529,7 +2529,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>143.5476780877535</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881295</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2724,13 +2724,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>101.491279848495</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>161.0175085755509</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>42.54416032354898</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>12.74007641194074</v>
       </c>
     </row>
     <row r="32">
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>129.5380597272483</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>87.61360486368905</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>95.25381996636061</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710083</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3672,16 +3672,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>71.79687029691044</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>182.6625718220553</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>68.17501931583779</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>103.8146543619973</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4146,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,13 +4194,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>205.6779548755971</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>20.66101211579047</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533.8029011832571</v>
+        <v>431.069853995891</v>
       </c>
       <c r="C2" t="n">
-        <v>533.8029011832571</v>
+        <v>165.0266067583332</v>
       </c>
       <c r="D2" t="n">
-        <v>533.8029011832571</v>
+        <v>165.0266067583332</v>
       </c>
       <c r="E2" t="n">
-        <v>533.8029011832571</v>
+        <v>165.0266067583332</v>
       </c>
       <c r="F2" t="n">
-        <v>403.6298206752751</v>
+        <v>158.0811060091298</v>
       </c>
       <c r="G2" t="n">
-        <v>137.586573437719</v>
+        <v>137.5865734377189</v>
       </c>
       <c r="H2" t="n">
-        <v>137.586573437719</v>
+        <v>137.5865734377189</v>
       </c>
       <c r="I2" t="n">
-        <v>21.07062518121445</v>
+        <v>21.07062518121457</v>
       </c>
       <c r="J2" t="n">
-        <v>49.15993901467351</v>
+        <v>49.15993901467414</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9970572935565</v>
+        <v>141.9970572935576</v>
       </c>
       <c r="L2" t="n">
-        <v>294.0714735959976</v>
+        <v>294.0714735959996</v>
       </c>
       <c r="M2" t="n">
-        <v>494.9530007795985</v>
+        <v>494.9530007796012</v>
       </c>
       <c r="N2" t="n">
-        <v>703.6988094670337</v>
+        <v>703.6988094670372</v>
       </c>
       <c r="O2" t="n">
-        <v>887.4762960288958</v>
+        <v>887.4762960289004</v>
       </c>
       <c r="P2" t="n">
-        <v>1009.825128108068</v>
+        <v>1009.825128108074</v>
       </c>
       <c r="Q2" t="n">
-        <v>1053.531259060723</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="R2" t="n">
-        <v>1053.531259060723</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="S2" t="n">
-        <v>1053.531259060723</v>
+        <v>899.194086719346</v>
       </c>
       <c r="T2" t="n">
-        <v>1053.531259060723</v>
+        <v>684.7549646358002</v>
       </c>
       <c r="U2" t="n">
-        <v>799.8461484208133</v>
+        <v>431.069853995891</v>
       </c>
       <c r="V2" t="n">
-        <v>533.8029011832571</v>
+        <v>431.069853995891</v>
       </c>
       <c r="W2" t="n">
-        <v>533.8029011832571</v>
+        <v>431.069853995891</v>
       </c>
       <c r="X2" t="n">
-        <v>533.8029011832571</v>
+        <v>431.069853995891</v>
       </c>
       <c r="Y2" t="n">
-        <v>533.8029011832571</v>
+        <v>431.069853995891</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>373.6292670479974</v>
+        <v>286.3301121794982</v>
       </c>
       <c r="C3" t="n">
-        <v>373.6292670479974</v>
+        <v>111.8770828983712</v>
       </c>
       <c r="D3" t="n">
-        <v>224.6948573867461</v>
+        <v>111.8770828983712</v>
       </c>
       <c r="E3" t="n">
-        <v>65.45740238129062</v>
+        <v>21.07062518121457</v>
       </c>
       <c r="F3" t="n">
-        <v>65.45740238129062</v>
+        <v>21.07062518121457</v>
       </c>
       <c r="G3" t="n">
-        <v>65.45740238129062</v>
+        <v>21.07062518121457</v>
       </c>
       <c r="H3" t="n">
-        <v>65.45740238129062</v>
+        <v>21.07062518121457</v>
       </c>
       <c r="I3" t="n">
-        <v>21.07062518121445</v>
+        <v>21.07062518121457</v>
       </c>
       <c r="J3" t="n">
-        <v>117.0004092799683</v>
+        <v>21.07062518121457</v>
       </c>
       <c r="K3" t="n">
-        <v>191.5864341124644</v>
+        <v>191.5864341124675</v>
       </c>
       <c r="L3" t="n">
-        <v>338.1990901420713</v>
+        <v>338.1990901420749</v>
       </c>
       <c r="M3" t="n">
-        <v>528.6460126286577</v>
+        <v>528.6460126286619</v>
       </c>
       <c r="N3" t="n">
-        <v>738.542143376707</v>
+        <v>738.5421433767119</v>
       </c>
       <c r="O3" t="n">
-        <v>908.3363012748532</v>
+        <v>908.3363012748587</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.278016062221</v>
+        <v>1025.278016062227</v>
       </c>
       <c r="Q3" t="n">
-        <v>1053.531259060723</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="R3" t="n">
-        <v>1035.156931155241</v>
+        <v>1035.156931155247</v>
       </c>
       <c r="S3" t="n">
-        <v>1035.156931155241</v>
+        <v>886.5091315712176</v>
       </c>
       <c r="T3" t="n">
-        <v>838.345357015332</v>
+        <v>689.697557431309</v>
       </c>
       <c r="U3" t="n">
-        <v>838.345357015332</v>
+        <v>689.697557431309</v>
       </c>
       <c r="V3" t="n">
-        <v>838.345357015332</v>
+        <v>454.5454491995662</v>
       </c>
       <c r="W3" t="n">
-        <v>584.1080002871304</v>
+        <v>454.5454491995662</v>
       </c>
       <c r="X3" t="n">
-        <v>376.2565000815976</v>
+        <v>454.5454491995662</v>
       </c>
       <c r="Y3" t="n">
-        <v>376.2565000815976</v>
+        <v>454.5454491995662</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>168.9837187636076</v>
+        <v>651.0902150869588</v>
       </c>
       <c r="C4" t="n">
-        <v>168.9837187636076</v>
+        <v>482.1540321590519</v>
       </c>
       <c r="D4" t="n">
-        <v>168.9837187636076</v>
+        <v>332.0373927467161</v>
       </c>
       <c r="E4" t="n">
-        <v>21.07062518121445</v>
+        <v>184.124299164323</v>
       </c>
       <c r="F4" t="n">
-        <v>21.07062518121445</v>
+        <v>37.23435166641266</v>
       </c>
       <c r="G4" t="n">
-        <v>21.07062518121445</v>
+        <v>36.33176967440284</v>
       </c>
       <c r="H4" t="n">
-        <v>21.07062518121445</v>
+        <v>36.33176967440284</v>
       </c>
       <c r="I4" t="n">
-        <v>21.07062518121445</v>
+        <v>36.33176967440284</v>
       </c>
       <c r="J4" t="n">
-        <v>21.07062518121445</v>
+        <v>21.07062518121457</v>
       </c>
       <c r="K4" t="n">
-        <v>126.3277805481199</v>
+        <v>126.3277805481203</v>
       </c>
       <c r="L4" t="n">
-        <v>316.5471352504852</v>
+        <v>316.5471352504859</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4958971570824</v>
+        <v>527.4958971570834</v>
       </c>
       <c r="N4" t="n">
-        <v>738.0340231670115</v>
+        <v>738.0340231670168</v>
       </c>
       <c r="O4" t="n">
-        <v>917.2498138836311</v>
+        <v>917.2498138836366</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.079201097373</v>
+        <v>1047.079201097379</v>
       </c>
       <c r="Q4" t="n">
-        <v>1053.531259060723</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="R4" t="n">
-        <v>1053.531259060723</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="S4" t="n">
-        <v>1024.885567885701</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="T4" t="n">
-        <v>799.4143136353947</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="U4" t="n">
-        <v>799.4143136353947</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="V4" t="n">
-        <v>799.4143136353947</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="W4" t="n">
-        <v>799.4143136353947</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="X4" t="n">
-        <v>571.4247627373774</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="Y4" t="n">
-        <v>350.6321835938472</v>
+        <v>832.7386799171985</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>380.4820441686398</v>
+        <v>410.8916005921556</v>
       </c>
       <c r="C5" t="n">
-        <v>380.4820441686398</v>
+        <v>410.8916005921556</v>
       </c>
       <c r="D5" t="n">
-        <v>380.4820441686398</v>
+        <v>410.8916005921556</v>
       </c>
       <c r="E5" t="n">
-        <v>380.4820441686398</v>
+        <v>410.8916005921556</v>
       </c>
       <c r="F5" t="n">
-        <v>287.4747669672984</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
@@ -4594,25 +4594,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>646.8597007358178</v>
+        <v>801.1705019471533</v>
       </c>
       <c r="V5" t="n">
-        <v>646.8597007358178</v>
+        <v>534.7928453799753</v>
       </c>
       <c r="W5" t="n">
-        <v>646.8597007358178</v>
+        <v>534.7928453799753</v>
       </c>
       <c r="X5" t="n">
-        <v>646.8597007358178</v>
+        <v>410.8916005921556</v>
       </c>
       <c r="Y5" t="n">
-        <v>380.4820441686398</v>
+        <v>410.8916005921556</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>474.1185955443175</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C6" t="n">
-        <v>474.1185955443175</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D6" t="n">
-        <v>325.1841858830662</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E6" t="n">
-        <v>165.9467308776107</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
         <v>21.09711040012049</v>
@@ -4649,22 +4649,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699343</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>338.874007230231</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4679,19 +4679,19 @@
         <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>808.3837902496282</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>728.3559522725191</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W6" t="n">
-        <v>474.1185955443175</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X6" t="n">
-        <v>474.1185955443175</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="Y6" t="n">
-        <v>474.1185955443175</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>190.2429270008669</v>
+        <v>331.1245950146483</v>
       </c>
       <c r="C7" t="n">
-        <v>190.2429270008669</v>
+        <v>331.1245950146483</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2429270008669</v>
+        <v>331.1245950146483</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2429270008669</v>
+        <v>183.2115014322552</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2429270008669</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2429270008669</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H7" t="n">
         <v>36.32155393434483</v>
@@ -4728,19 +4728,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4749,28 +4749,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>671.3785036348206</v>
+        <v>800.1710318001377</v>
       </c>
       <c r="W7" t="n">
-        <v>405.0008470676427</v>
+        <v>559.1141459126657</v>
       </c>
       <c r="X7" t="n">
-        <v>190.2429270008669</v>
+        <v>331.1245950146483</v>
       </c>
       <c r="Y7" t="n">
-        <v>190.2429270008669</v>
+        <v>331.1245950146483</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.332751740275</v>
+        <v>1112.520734025444</v>
       </c>
       <c r="C8" t="n">
-        <v>1248.370234799863</v>
+        <v>743.5582170850323</v>
       </c>
       <c r="D8" t="n">
-        <v>1248.370234799863</v>
+        <v>743.5582170850323</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>743.5582170850323</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>332.5723122954248</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2377.398350065476</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V8" t="n">
-        <v>2377.398350065476</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W8" t="n">
-        <v>2377.398350065476</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="X8" t="n">
-        <v>2003.932591804396</v>
+        <v>1502.660066001256</v>
       </c>
       <c r="Y8" t="n">
-        <v>2003.932591804396</v>
+        <v>1112.520734025444</v>
       </c>
     </row>
     <row r="9">
@@ -4865,46 +4865,46 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310614</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625332</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1140.868925009994</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1528.15405360694</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>1860.224488783102</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.24678656800311</v>
+        <v>932.9795018270626</v>
       </c>
       <c r="C10" t="n">
-        <v>51.24678656800311</v>
+        <v>764.0433188991557</v>
       </c>
       <c r="D10" t="n">
-        <v>51.24678656800311</v>
+        <v>613.9266794868199</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>466.0135859044268</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>319.1236384065164</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>151.137173714795</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>151.137173714795</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4989,25 +4989,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1556.227393153825</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1333.24891234856</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1044.130574852398</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>789.4460866465112</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W10" t="n">
-        <v>500.0289166095505</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="X10" t="n">
-        <v>272.0393657115332</v>
+        <v>1153.772080970593</v>
       </c>
       <c r="Y10" t="n">
-        <v>51.24678656800311</v>
+        <v>932.9795018270626</v>
       </c>
     </row>
     <row r="11">
@@ -5029,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803938</v>
@@ -5129,19 +5129,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1231.938859683104</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>762.547769317909</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>593.6115863900021</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D13" t="n">
-        <v>443.4949469776664</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>443.4949469776664</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>296.604999479756</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>129.4089001946359</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>129.4089001946359</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.547769317909</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5272,55 +5272,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>740.5562989961525</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1368.154262550759</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1920.063992790046</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2343.687142285114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2237.774446768175</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2018.172981791116</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1729.097755135313</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5506,40 +5506,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5697,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5749,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5840,19 +5840,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2253.988764961266</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>580.8993044876688</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>580.8993044876688</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>432.9862109052757</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>286.0962634073653</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,10 +5980,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -5995,43 +5995,43 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
         <v>484.8112968429803</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,25 +6238,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.2707707770319</v>
+        <v>870.3164745246301</v>
       </c>
       <c r="C28" t="n">
-        <v>803.2707707770319</v>
+        <v>701.3802915967232</v>
       </c>
       <c r="D28" t="n">
-        <v>653.1541313646961</v>
+        <v>551.2636521843874</v>
       </c>
       <c r="E28" t="n">
-        <v>505.241037782303</v>
+        <v>403.3505586019943</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>256.4606111040839</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.711814750802</v>
+        <v>1272.7575184984</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.9192356072716</v>
+        <v>1051.96493935487</v>
       </c>
     </row>
     <row r="29">
@@ -6460,25 +6460,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6502,10 +6502,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3006.417838136243</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C31" t="n">
-        <v>2837.481655208336</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D31" t="n">
-        <v>2837.481655208336</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>2689.568561625942</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>3455.19996817779</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>3227.210417279773</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>3006.417838136243</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="32">
@@ -6679,13 +6679,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6694,16 +6694,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,37 +6712,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,55 +6834,55 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>781.8178837532264</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C34" t="n">
-        <v>781.8178837532264</v>
+        <v>762.547769317909</v>
       </c>
       <c r="D34" t="n">
-        <v>631.7012443408906</v>
+        <v>762.547769317909</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
         <v>2264.108249235165</v>
@@ -6897,13 +6897,13 @@
         <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1412.248478625014</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1184.258927726996</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y34" t="n">
-        <v>963.4663485834661</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="35">
@@ -6928,22 +6928,22 @@
         <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
         <v>2206.55866301478</v>
@@ -6955,7 +6955,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852256</v>
@@ -6964,7 +6964,7 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474785</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851784</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7174,40 +7174,40 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>800.5007694647281</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C40" t="n">
-        <v>631.5645865368213</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D40" t="n">
-        <v>481.4479471244855</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
-        <v>333.5348535420924</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
@@ -7368,16 +7368,16 @@
         <v>1975.033022579363</v>
       </c>
       <c r="V40" t="n">
-        <v>1720.348534373476</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="W40" t="n">
-        <v>1430.931364336515</v>
+        <v>1685.615852542402</v>
       </c>
       <c r="X40" t="n">
-        <v>1202.941813438498</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1492342949679</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7402,31 +7402,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>849.3843576263199</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>680.448174698413</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>530.3315352860773</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E43" t="n">
-        <v>382.4184417036842</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487568</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1363.885660588918</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1135.8961096909</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>1031.03282245656</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7627,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7636,28 +7636,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
@@ -7666,31 +7666,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.0191461778176</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>788.0191461778176</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>637.9025067654818</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>1190.460190151587</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>969.6676110080573</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.59164343877293</v>
+        <v>60.59164343877265</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.00790724000257</v>
+        <v>2.109135423079223</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>96.89877181692563</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8148,7 +8148,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>170.9799771939078</v>
+        <v>170.9799771939119</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8297,7 +8297,7 @@
         <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,16 +8531,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>186.449012614385</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>-1.136594450213864e-12</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>46.02952154336811</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>57.22910392194186</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>40.32043864788527</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>40.30478226780122</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>65.54986409393022</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>56.43317025503488</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>105.0969227051396</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>142.9753202488375</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>43.92976817443622</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>4.506629716717924</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>102.8768876993823</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>205.844576940154</v>
       </c>
     </row>
     <row r="32">
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>16.89590291932089</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>198.909393472902</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>191.2691783702304</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>73.6241777260208</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>43.04708356698185</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>78.25894333073138</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>114.7699989900974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>46.45968844823091</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>205.0486432732467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>755922.706248879</v>
+        <v>755922.7062488791</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>738020.8750562395</v>
+        <v>738020.8750562394</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>738020.8750562395</v>
+        <v>738020.8750562394</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>738020.8750562394</v>
+        <v>738020.8750562395</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>738020.8750562395</v>
+        <v>738020.8750562394</v>
       </c>
     </row>
     <row r="9">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>738020.8750562395</v>
+        <v>738020.8750562394</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>738020.8750562395</v>
+        <v>738020.8750562394</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846406</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846407</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="F2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="G2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="H2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="J2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="K2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="L2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="M2" t="n">
         <v>686074.6097365058</v>
-      </c>
-      <c r="H2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="I2" t="n">
-        <v>686074.6097365054</v>
-      </c>
-      <c r="J2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="K2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="L2" t="n">
-        <v>686074.6097365054</v>
-      </c>
-      <c r="M2" t="n">
-        <v>686074.6097365054</v>
       </c>
       <c r="N2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="O2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="P2" t="n">
         <v>686074.6097365057</v>
-      </c>
-      <c r="P2" t="n">
-        <v>686074.6097365055</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679702.4124909297</v>
+        <v>679702.4124909313</v>
       </c>
       <c r="C3" t="n">
-        <v>366.4703680938032</v>
+        <v>366.4703680922721</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059436</v>
+        <v>391128.3638059434</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245459</v>
+        <v>507485.4416245462</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68912.53318642091</v>
+        <v>68912.53318642153</v>
       </c>
       <c r="K3" t="n">
-        <v>85.205597742625</v>
+        <v>85.20559774217148</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756974</v>
+        <v>95382.64613756977</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>253116.547767403</v>
+        <v>253116.5477674026</v>
       </c>
       <c r="C4" t="n">
         <v>253016.7649073352</v>
       </c>
       <c r="D4" t="n">
-        <v>142746.9572676994</v>
+        <v>142746.9572676995</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181809</v>
       </c>
       <c r="F4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181809</v>
       </c>
       <c r="H4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
-        <v>12386.92018181815</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181809</v>
       </c>
       <c r="K4" t="n">
         <v>12386.92018181813</v>
@@ -26453,7 +26453,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="N4" t="n">
-        <v>12386.92018181807</v>
+        <v>12386.9201818181</v>
       </c>
       <c r="O4" t="n">
         <v>12386.92018181813</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63021.4616455769</v>
+        <v>63021.46164557702</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-297954.9175192687</v>
+        <v>-297954.9175192698</v>
       </c>
       <c r="C6" t="n">
-        <v>381454.4659049456</v>
+        <v>381454.465904947</v>
       </c>
       <c r="D6" t="n">
-        <v>71072.41087115298</v>
+        <v>71072.41087115314</v>
       </c>
       <c r="E6" t="n">
-        <v>65079.71810623427</v>
+        <v>64732.33885187731</v>
       </c>
       <c r="F6" t="n">
-        <v>572565.1597307806</v>
+        <v>572217.7804764237</v>
       </c>
       <c r="G6" t="n">
-        <v>572565.1597307804</v>
+        <v>572217.7804764234</v>
       </c>
       <c r="H6" t="n">
-        <v>572565.1597307806</v>
+        <v>572217.7804764236</v>
       </c>
       <c r="I6" t="n">
-        <v>572565.1597307802</v>
+        <v>572217.7804764234</v>
       </c>
       <c r="J6" t="n">
-        <v>503652.6265443597</v>
+        <v>503305.2472900022</v>
       </c>
       <c r="K6" t="n">
-        <v>572479.9541330379</v>
+        <v>572132.5748786812</v>
       </c>
       <c r="L6" t="n">
-        <v>477182.5135932104</v>
+        <v>476835.1343388536</v>
       </c>
       <c r="M6" t="n">
-        <v>439957.8660018535</v>
+        <v>439610.4867474968</v>
       </c>
       <c r="N6" t="n">
-        <v>572565.1597307802</v>
+        <v>572217.7804764234</v>
       </c>
       <c r="O6" t="n">
-        <v>572565.1597307805</v>
+        <v>572217.7804764236</v>
       </c>
       <c r="P6" t="n">
-        <v>572565.1597307804</v>
+        <v>572217.7804764236</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960515</v>
+        <v>613.7700232960526</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651806</v>
+        <v>263.3828147651822</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26813,13 +26813,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099649</v>
@@ -26831,7 +26831,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>-3.016897076984856e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-3.016897076984856e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960515</v>
+        <v>613.7700232960526</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2849904734267739</v>
+        <v>0.284990473425637</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480611</v>
+        <v>320.0098783480609</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>-2.273736754432321e-13</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26995,10 +26995,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651806</v>
+        <v>263.3828147651822</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3310652363255144</v>
+        <v>0.3310652363239797</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651806</v>
+        <v>263.3828147651824</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363255144</v>
+        <v>0.3310652363237523</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.8709520985328</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651806</v>
+        <v>263.3828147651822</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363255144</v>
+        <v>0.3310652363239797</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>101.8900770058254</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>278.0046960388094</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>149.4525055708748</v>
+        <v>392.5457330903587</v>
       </c>
       <c r="H2" t="n">
-        <v>314.2053659305182</v>
+        <v>314.2053659305181</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7938006179689</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2947308627104</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>64.36944370495428</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>163.9322229466032</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>67.74668731541591</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0233325848003</v>
+        <v>136.0233325848002</v>
       </c>
       <c r="H3" t="n">
-        <v>99.48524054500679</v>
+        <v>99.48524054500676</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.94290942807532</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.161321588189</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27517,13 +27517,13 @@
         <v>225.8545278323952</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27539,28 +27539,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8841809557937</v>
+        <v>165.990624783704</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3867285273816</v>
+        <v>152.3867285273815</v>
       </c>
       <c r="I4" t="n">
         <v>122.1660284180232</v>
       </c>
       <c r="J4" t="n">
-        <v>15.10853304825652</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5277104718864</v>
+        <v>127.5277104718863</v>
       </c>
       <c r="S4" t="n">
-        <v>176.3688861563485</v>
+        <v>204.7281204196193</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2165417078037</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586585345273</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>314.7988413123834</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>149.1202946442039</v>
@@ -27636,7 +27636,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
@@ -27675,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>247.0688683385275</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,10 +27694,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27706,16 +27706,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27751,19 +27751,19 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>153.5730275520872</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>195.5884214778211</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27782,16 +27782,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
         <v>122.1505735248085</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
@@ -27836,10 +27836,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508486</v>
+        <v>47.87668130799369</v>
       </c>
       <c r="X7" t="n">
-        <v>13.09931452292912</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>133.0354323028066</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>67.95368157712969</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,25 +28013,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>5.905111928576602</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,19 +28061,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>115.2459207102715</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28149,7 +28149,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-8.44124770082999e-13</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>5.519365296858341e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -30225,7 +30225,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>-3.731285313764596e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467417179079602</v>
+        <v>2.467417179079606</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26943618524898</v>
+        <v>25.26943618524903</v>
       </c>
       <c r="I2" t="n">
-        <v>95.12510079646646</v>
+        <v>95.12510079646663</v>
       </c>
       <c r="J2" t="n">
-        <v>209.4189488029076</v>
+        <v>209.4189488029079</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8647179933472</v>
+        <v>313.8647179933478</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3769364876046</v>
+        <v>389.3769364876053</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2568667460615</v>
+        <v>433.2568667460623</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2674158061214</v>
+        <v>440.2674158061222</v>
       </c>
       <c r="O2" t="n">
-        <v>415.7320362316486</v>
+        <v>415.7320362316494</v>
       </c>
       <c r="P2" t="n">
-        <v>354.8176746231209</v>
+        <v>354.8176746231215</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4532968973326</v>
+        <v>266.4532968973331</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9938943753592</v>
+        <v>154.9938943753595</v>
       </c>
       <c r="S2" t="n">
-        <v>56.22626896827649</v>
+        <v>56.22626896827659</v>
       </c>
       <c r="T2" t="n">
-        <v>10.80111870142096</v>
+        <v>10.80111870142098</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973933743263681</v>
+        <v>0.1973933743263685</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320184578410375</v>
+        <v>1.320184578410377</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75020369148968</v>
+        <v>12.7502036914897</v>
       </c>
       <c r="I3" t="n">
-        <v>45.45372342333967</v>
+        <v>45.45372342333975</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7284912435872</v>
+        <v>124.7284912435875</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1808579970823</v>
+        <v>213.1808579970827</v>
       </c>
       <c r="L3" t="n">
-        <v>286.647971728972</v>
+        <v>286.6479717289725</v>
       </c>
       <c r="M3" t="n">
-        <v>334.504662696348</v>
+        <v>334.5046626963486</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3580057682317</v>
+        <v>343.3580057682323</v>
       </c>
       <c r="O3" t="n">
-        <v>314.1054948466123</v>
+        <v>314.1054948466129</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0973516439952</v>
+        <v>252.0973516439957</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5204033774367</v>
+        <v>168.520403377437</v>
       </c>
       <c r="R3" t="n">
-        <v>81.96724952621612</v>
+        <v>81.96724952621626</v>
       </c>
       <c r="S3" t="n">
-        <v>24.52184951564884</v>
+        <v>24.52184951564888</v>
       </c>
       <c r="T3" t="n">
-        <v>5.321270296311992</v>
+        <v>5.321270296312002</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08685424857962996</v>
+        <v>0.08685424857963013</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.106798402665011</v>
+        <v>1.106798402665013</v>
       </c>
       <c r="H4" t="n">
-        <v>9.840443980058012</v>
+        <v>9.84044398005803</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28444650923506</v>
+        <v>33.28444650923512</v>
       </c>
       <c r="J4" t="n">
-        <v>78.25064706841626</v>
+        <v>78.2506470684164</v>
       </c>
       <c r="K4" t="n">
-        <v>128.589850782353</v>
+        <v>128.5898507823533</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5507370653054</v>
+        <v>164.5507370653057</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4956805195707</v>
+        <v>173.495680519571</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3703410187285</v>
+        <v>169.3703410187289</v>
       </c>
       <c r="O4" t="n">
-        <v>156.440923314869</v>
+        <v>156.4409233148693</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8622359005027</v>
+        <v>133.862235900503</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.67927351770378</v>
+        <v>92.67927351770395</v>
       </c>
       <c r="R4" t="n">
-        <v>49.76568090528311</v>
+        <v>49.7656809052832</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28847761735295</v>
+        <v>19.28847761735299</v>
       </c>
       <c r="T4" t="n">
-        <v>4.729047720477772</v>
+        <v>4.729047720477781</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06037082196354611</v>
+        <v>0.06037082196354622</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31849,22 +31849,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>301.1823051500296</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>314.4610577451606</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32323,22 +32323,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>368.6279838366847</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32560,22 +32560,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>399.0581126127094</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32797,22 +32797,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>303.4297552732313</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>570.6116741576916</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>409.0029787211721</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33523,16 +33523,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175688</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33897,7 +33897,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817571</v>
       </c>
       <c r="L38" t="n">
         <v>867.8464071162563</v>
@@ -33970,7 +33970,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33985,10 +33985,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33997,7 +33997,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>379.4203056753698</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>416.4300581532619</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.37304427622129</v>
+        <v>28.37304427622166</v>
       </c>
       <c r="K2" t="n">
-        <v>93.77486694836665</v>
+        <v>93.77486694836722</v>
       </c>
       <c r="L2" t="n">
-        <v>153.6105215176174</v>
+        <v>153.6105215176181</v>
       </c>
       <c r="M2" t="n">
-        <v>202.9106335187887</v>
+        <v>202.9106335187896</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8543522095305</v>
+        <v>210.8543522095313</v>
       </c>
       <c r="O2" t="n">
-        <v>185.6338248099619</v>
+        <v>185.6338248099626</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5846788678514</v>
+        <v>123.584678867852</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.14760702288308</v>
+        <v>44.14760702288359</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>96.89877181692312</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.33941902272335</v>
+        <v>172.2381908396494</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0935919490978</v>
+        <v>148.0935919490984</v>
       </c>
       <c r="M3" t="n">
-        <v>192.3706287743297</v>
+        <v>192.3706287743303</v>
       </c>
       <c r="N3" t="n">
-        <v>212.0162936848984</v>
+        <v>212.016293684899</v>
       </c>
       <c r="O3" t="n">
-        <v>171.5092504021679</v>
+        <v>171.5092504021684</v>
       </c>
       <c r="P3" t="n">
-        <v>118.122944229665</v>
+        <v>118.1229442296654</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.53862929141513</v>
+        <v>28.53862929141545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3203589564702</v>
+        <v>106.3203589564704</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1407623256215</v>
+        <v>192.1407623256218</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0795574814113</v>
+        <v>213.0795574814116</v>
       </c>
       <c r="N4" t="n">
-        <v>212.6647737474031</v>
+        <v>212.6647737474075</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0260512289087</v>
+        <v>181.026051228909</v>
       </c>
       <c r="P4" t="n">
-        <v>131.1407951653962</v>
+        <v>131.1407951653964</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.517230266009392</v>
+        <v>6.517230266009562</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>172.7600739089029</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
         <v>148.2266905659562</v>
@@ -35035,7 +35035,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>553.3803448964255</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35497,22 +35497,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>159.0482712280113</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>174.4792836591391</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35971,22 +35971,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>237.2862717533515</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36208,22 +36208,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>265.0837051983791</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36445,22 +36445,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>160.8335108287869</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>432.0572943778175</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>266.8689447991538</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902961</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,22 +37390,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37542,10 +37542,10 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367765</v>
       </c>
       <c r="L38" t="n">
         <v>632.079992146269</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37633,10 +37633,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>237.2862717533515</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,22 +38101,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>274.2960242312436</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2955220.893585471</v>
+        <v>2956981.423888256</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283194</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.3828147651791</v>
       </c>
       <c r="C2" t="n">
-        <v>263.3828147651822</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>20.28958724569676</v>
+        <v>72.31773688548923</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3507887739393</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7938006179687</v>
+        <v>152.793800617969</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2947308627104</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1482595335101</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.3828147651791</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>263.3828147651791</v>
       </c>
     </row>
     <row r="3">
@@ -740,19 +740,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>89.89839313998503</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>123.2422854348461</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.19058462642687</v>
+        <v>18.1905846264272</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1613215881889</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8434583985096</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8935561720897303</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.10853304825638</v>
+        <v>15.10853304825669</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5277104718865</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>91.9504990522861</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -910,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>263.7138800015061</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X5" t="n">
-        <v>122.6622323399416</v>
+        <v>212.568965117905</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>10.18456372565635</v>
+        <v>10.18456372565657</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>68.36004337105362</v>
       </c>
       <c r="W7" t="n">
-        <v>238.6463170285973</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>278.5122704701474</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>261.5224947939252</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.89148327532398</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>90.69811547110089</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634798</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695537</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701358</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174156</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,13 +1584,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>229.3194715608925</v>
       </c>
       <c r="W13" t="n">
-        <v>229.2938944146491</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187889</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,16 +1663,16 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784694</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>108.2950343703258</v>
       </c>
       <c r="H16" t="n">
-        <v>99.97427419833859</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012176</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="17">
@@ -1846,13 +1846,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766848</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012177</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="20">
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892427999</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101218</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="23">
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C25" t="n">
-        <v>62.14989839348819</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788177681</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="26">
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881295</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2727,10 +2727,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>161.0175085755509</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>35.03063761899501</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>12.74007641194074</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>129.5380597272483</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710083</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>182.6625718220553</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>68.17501931583779</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>205.6779548755971</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158706</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>431.069853995891</v>
+        <v>101.0643450066696</v>
       </c>
       <c r="C2" t="n">
-        <v>165.0266067583332</v>
+        <v>101.0643450066696</v>
       </c>
       <c r="D2" t="n">
-        <v>165.0266067583332</v>
+        <v>101.0643450066696</v>
       </c>
       <c r="E2" t="n">
-        <v>165.0266067583332</v>
+        <v>101.0643450066696</v>
       </c>
       <c r="F2" t="n">
-        <v>158.0811060091298</v>
+        <v>94.11884425746608</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5865734377189</v>
+        <v>21.07062518121433</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5865734377189</v>
+        <v>21.07062518121433</v>
       </c>
       <c r="I2" t="n">
-        <v>21.07062518121457</v>
+        <v>21.07062518121433</v>
       </c>
       <c r="J2" t="n">
-        <v>49.15993901467414</v>
+        <v>49.15993901467294</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9970572935576</v>
+        <v>141.9970572935552</v>
       </c>
       <c r="L2" t="n">
-        <v>294.0714735959996</v>
+        <v>294.0714735959957</v>
       </c>
       <c r="M2" t="n">
-        <v>494.9530007796012</v>
+        <v>494.9530007795954</v>
       </c>
       <c r="N2" t="n">
-        <v>703.6988094670372</v>
+        <v>703.6988094670297</v>
       </c>
       <c r="O2" t="n">
-        <v>887.4762960289004</v>
+        <v>887.4762960288911</v>
       </c>
       <c r="P2" t="n">
-        <v>1009.825128108074</v>
+        <v>1009.825128108063</v>
       </c>
       <c r="Q2" t="n">
-        <v>1053.531259060729</v>
+        <v>1053.531259060717</v>
       </c>
       <c r="R2" t="n">
-        <v>1053.531259060729</v>
+        <v>1053.531259060717</v>
       </c>
       <c r="S2" t="n">
-        <v>899.194086719346</v>
+        <v>899.1940867193338</v>
       </c>
       <c r="T2" t="n">
-        <v>684.7549646358002</v>
+        <v>899.1940867193338</v>
       </c>
       <c r="U2" t="n">
-        <v>431.069853995891</v>
+        <v>899.1940867193338</v>
       </c>
       <c r="V2" t="n">
-        <v>431.069853995891</v>
+        <v>633.150839481779</v>
       </c>
       <c r="W2" t="n">
-        <v>431.069853995891</v>
+        <v>633.150839481779</v>
       </c>
       <c r="X2" t="n">
-        <v>431.069853995891</v>
+        <v>633.150839481779</v>
       </c>
       <c r="Y2" t="n">
-        <v>431.069853995891</v>
+        <v>367.1075922442243</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>286.3301121794982</v>
+        <v>451.3297951646799</v>
       </c>
       <c r="C3" t="n">
-        <v>111.8770828983712</v>
+        <v>451.3297951646799</v>
       </c>
       <c r="D3" t="n">
-        <v>111.8770828983712</v>
+        <v>451.3297951646799</v>
       </c>
       <c r="E3" t="n">
-        <v>21.07062518121457</v>
+        <v>292.0923401592244</v>
       </c>
       <c r="F3" t="n">
-        <v>21.07062518121457</v>
+        <v>145.5577821861093</v>
       </c>
       <c r="G3" t="n">
-        <v>21.07062518121457</v>
+        <v>21.07062518121433</v>
       </c>
       <c r="H3" t="n">
-        <v>21.07062518121457</v>
+        <v>21.07062518121433</v>
       </c>
       <c r="I3" t="n">
-        <v>21.07062518121457</v>
+        <v>21.07062518121433</v>
       </c>
       <c r="J3" t="n">
-        <v>21.07062518121457</v>
+        <v>21.07062518121433</v>
       </c>
       <c r="K3" t="n">
-        <v>191.5864341124675</v>
+        <v>95.65665001370999</v>
       </c>
       <c r="L3" t="n">
-        <v>338.1990901420749</v>
+        <v>242.2693060433162</v>
       </c>
       <c r="M3" t="n">
-        <v>528.6460126286619</v>
+        <v>432.7162285299019</v>
       </c>
       <c r="N3" t="n">
-        <v>738.5421433767119</v>
+        <v>642.6123592779504</v>
       </c>
       <c r="O3" t="n">
-        <v>908.3363012748587</v>
+        <v>812.4065171760959</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.278016062227</v>
+        <v>929.3482319634637</v>
       </c>
       <c r="Q3" t="n">
-        <v>1053.531259060729</v>
+        <v>1053.531259060717</v>
       </c>
       <c r="R3" t="n">
-        <v>1035.156931155247</v>
+        <v>1035.156931155235</v>
       </c>
       <c r="S3" t="n">
-        <v>886.5091315712176</v>
+        <v>1035.156931155235</v>
       </c>
       <c r="T3" t="n">
-        <v>689.697557431309</v>
+        <v>1035.156931155235</v>
       </c>
       <c r="U3" t="n">
-        <v>689.697557431309</v>
+        <v>1035.156931155235</v>
       </c>
       <c r="V3" t="n">
-        <v>454.5454491995662</v>
+        <v>1035.156931155235</v>
       </c>
       <c r="W3" t="n">
-        <v>454.5454491995662</v>
+        <v>1035.156931155235</v>
       </c>
       <c r="X3" t="n">
-        <v>454.5454491995662</v>
+        <v>827.3054309497018</v>
       </c>
       <c r="Y3" t="n">
-        <v>454.5454491995662</v>
+        <v>619.5451321847479</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>651.0902150869588</v>
+        <v>650.187633094949</v>
       </c>
       <c r="C4" t="n">
-        <v>482.1540321590519</v>
+        <v>481.2514501670421</v>
       </c>
       <c r="D4" t="n">
-        <v>332.0373927467161</v>
+        <v>331.1348107547064</v>
       </c>
       <c r="E4" t="n">
-        <v>184.124299164323</v>
+        <v>183.2217171723133</v>
       </c>
       <c r="F4" t="n">
-        <v>37.23435166641266</v>
+        <v>36.33176967440291</v>
       </c>
       <c r="G4" t="n">
-        <v>36.33176967440284</v>
+        <v>36.33176967440291</v>
       </c>
       <c r="H4" t="n">
-        <v>36.33176967440284</v>
+        <v>36.33176967440291</v>
       </c>
       <c r="I4" t="n">
-        <v>36.33176967440284</v>
+        <v>36.33176967440291</v>
       </c>
       <c r="J4" t="n">
-        <v>21.07062518121457</v>
+        <v>21.07062518121433</v>
       </c>
       <c r="K4" t="n">
-        <v>126.3277805481203</v>
+        <v>126.3277805481195</v>
       </c>
       <c r="L4" t="n">
-        <v>316.5471352504859</v>
+        <v>316.5471352504844</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4958971570834</v>
+        <v>527.4958971570812</v>
       </c>
       <c r="N4" t="n">
-        <v>738.0340231670168</v>
+        <v>738.8633854210584</v>
       </c>
       <c r="O4" t="n">
-        <v>917.2498138836366</v>
+        <v>918.0791761376777</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.079201097379</v>
+        <v>1047.079201097368</v>
       </c>
       <c r="Q4" t="n">
-        <v>1053.531259060729</v>
+        <v>1053.531259060717</v>
       </c>
       <c r="R4" t="n">
-        <v>1053.531259060729</v>
+        <v>924.7153898971949</v>
       </c>
       <c r="S4" t="n">
-        <v>1053.531259060729</v>
+        <v>924.7153898971949</v>
       </c>
       <c r="T4" t="n">
-        <v>1053.531259060729</v>
+        <v>924.7153898971949</v>
       </c>
       <c r="U4" t="n">
-        <v>1053.531259060729</v>
+        <v>924.7153898971949</v>
       </c>
       <c r="V4" t="n">
-        <v>1053.531259060729</v>
+        <v>831.8360979251887</v>
       </c>
       <c r="W4" t="n">
-        <v>1053.531259060729</v>
+        <v>831.8360979251887</v>
       </c>
       <c r="X4" t="n">
-        <v>1053.531259060729</v>
+        <v>831.8360979251887</v>
       </c>
       <c r="Y4" t="n">
-        <v>832.7386799171985</v>
+        <v>831.8360979251887</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>410.8916005921556</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="C5" t="n">
-        <v>410.8916005921556</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="D5" t="n">
-        <v>410.8916005921556</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="E5" t="n">
-        <v>410.8916005921556</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
-        <v>403.9460998429521</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N5" t="n">
         <v>704.5463761991316</v>
@@ -4600,19 +4600,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>801.1705019471533</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>534.7928453799753</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="W5" t="n">
-        <v>534.7928453799753</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="X5" t="n">
-        <v>410.8916005921556</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="Y5" t="n">
-        <v>410.8916005921556</v>
+        <v>41.00642392276842</v>
       </c>
     </row>
     <row r="6">
@@ -4634,37 +4634,37 @@
         <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290001</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891335</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>331.1245950146483</v>
+        <v>355.3743762745875</v>
       </c>
       <c r="C7" t="n">
-        <v>331.1245950146483</v>
+        <v>186.4381933466805</v>
       </c>
       <c r="D7" t="n">
-        <v>331.1245950146483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="E7" t="n">
-        <v>183.2115014322552</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
         <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4761,16 +4761,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>800.1710318001377</v>
+        <v>985.8049711463747</v>
       </c>
       <c r="W7" t="n">
-        <v>559.1141459126657</v>
+        <v>985.8049711463747</v>
       </c>
       <c r="X7" t="n">
-        <v>331.1245950146483</v>
+        <v>757.8154202483573</v>
       </c>
       <c r="Y7" t="n">
-        <v>331.1245950146483</v>
+        <v>537.0228411048272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1112.520734025444</v>
+        <v>1201.12525314008</v>
       </c>
       <c r="C8" t="n">
-        <v>743.5582170850323</v>
+        <v>832.1627361996682</v>
       </c>
       <c r="D8" t="n">
-        <v>743.5582170850323</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E8" t="n">
-        <v>743.5582170850323</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>332.5723122954248</v>
+        <v>62.9111328033102</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4819,37 +4819,37 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V8" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W8" t="n">
-        <v>1876.125824262336</v>
+        <v>1964.730343376971</v>
       </c>
       <c r="X8" t="n">
-        <v>1502.660066001256</v>
+        <v>1591.264585115892</v>
       </c>
       <c r="Y8" t="n">
-        <v>1112.520734025444</v>
+        <v>1201.12525314008</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>299.2648838844858</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>593.9684409159576</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>957.2304598751778</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1344.515588472123</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1676.586023648285</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2239.04689843412</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>932.9795018270626</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C10" t="n">
-        <v>764.0433188991557</v>
+        <v>201.3634259803389</v>
       </c>
       <c r="D10" t="n">
-        <v>613.9266794868199</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="E10" t="n">
-        <v>466.0135859044268</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="F10" t="n">
-        <v>319.1236384065164</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G10" t="n">
-        <v>151.137173714795</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H10" t="n">
-        <v>151.137173714795</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1544.831862022881</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>1290.147373816994</v>
       </c>
       <c r="W10" t="n">
-        <v>1381.76163186861</v>
+        <v>1000.730203780033</v>
       </c>
       <c r="X10" t="n">
-        <v>1153.772080970593</v>
+        <v>772.7406528820156</v>
       </c>
       <c r="Y10" t="n">
-        <v>932.9795018270626</v>
+        <v>551.9480737384855</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,25 +5029,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5056,34 +5056,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>718.5507239167114</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888044</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888044</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888044</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>402.724593490894</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,13 +5217,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487568</v>
@@ -5235,16 +5235,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1456.75002399522</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1167.332853958259</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>939.3433030602415</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>718.5507239167114</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551878</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004716</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168636</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5296,34 +5296,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123006</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866616</v>
       </c>
     </row>
     <row r="15">
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245697</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403286</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400706</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998291</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="E16" t="n">
-        <v>194.8007783998291</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="F16" t="n">
-        <v>194.8007783998291</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="G16" t="n">
-        <v>194.8007783998291</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,19 +5503,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075811</v>
@@ -5542,13 +5542,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400706</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400697</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270426</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5910,13 +5910,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5928,34 +5928,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138398</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="23">
@@ -5971,19 +5971,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -6010,7 +6010,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>695.5020655703109</v>
+        <v>571.6607764188011</v>
       </c>
       <c r="C25" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6165,34 +6165,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511393</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290589</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925712</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.309241249041</v>
       </c>
     </row>
     <row r="26">
@@ -6208,28 +6208,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,25 +6238,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,55 +6360,55 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>870.3164745246301</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>701.3802915967232</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D28" t="n">
-        <v>551.2636521843874</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E28" t="n">
-        <v>403.3505586019943</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>256.4606111040839</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
         <v>2264.108249235165</v>
@@ -6423,13 +6423,13 @@
         <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1500.747069396417</v>
+        <v>1465.362586952987</v>
       </c>
       <c r="X28" t="n">
-        <v>1272.7575184984</v>
+        <v>1237.37303605497</v>
       </c>
       <c r="Y28" t="n">
-        <v>1051.96493935487</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="29">
@@ -6445,13 +6445,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,10 +6475,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>721.7774158311364</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>552.8412329032295</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>903.4258806613761</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6694,55 +6694,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>762.547769317909</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>762.547769317909</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>762.547769317909</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.547769317909</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7192,22 +7192,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1975.033022579363</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1685.615852542402</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7420,13 +7420,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597619</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>343.0994656851783</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7630,22 +7630,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7657,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.7825789706076</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C46" t="n">
-        <v>391.8463960427007</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>241.729756630365</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7842,16 +7842,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>742.4310438008473</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.59164343877265</v>
+        <v>60.59164343877327</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.109135423079223</v>
+        <v>2.109135423079735</v>
       </c>
       <c r="K3" t="n">
-        <v>96.89877181692563</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>96.89877181692147</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8148,13 +8148,13 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>170.9799771939119</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>134.1688236634835</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127237</v>
+        <v>97.32166909127245</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>0.9556134883073639</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856562</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>22.81817176293566</v>
       </c>
       <c r="W13" t="n">
-        <v>57.22910392194186</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194315</v>
       </c>
       <c r="H16" t="n">
-        <v>40.32043864788527</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856562</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>57.22910392194312</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856563</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194402</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856565</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>105.0969227051396</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856565</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.22910392194412</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>4.506629716717924</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>251.492360717596</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>205.844576940154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>16.89590291932089</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>43.04708356698185</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>78.25894333073138</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>46.45968844823091</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>755922.7062488791</v>
+        <v>755922.706248879</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>738020.8750562394</v>
+        <v>738020.8750562395</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>738020.8750562395</v>
+        <v>738020.8750562394</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>738020.8750562395</v>
+        <v>738020.8750562394</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>738020.8750562395</v>
+        <v>738020.8750562394</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>738020.8750562395</v>
+        <v>738020.8750562394</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>738020.8750562395</v>
+        <v>738020.8750562394</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>738020.8750562394</v>
+        <v>738020.8750562395</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846412</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846405</v>
       </c>
       <c r="E2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="G2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="H2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="I2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="J2" t="n">
         <v>686074.6097365055</v>
-      </c>
-      <c r="J2" t="n">
-        <v>686074.6097365059</v>
       </c>
       <c r="K2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="L2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="M2" t="n">
         <v>686074.6097365055</v>
-      </c>
-      <c r="M2" t="n">
-        <v>686074.6097365058</v>
       </c>
       <c r="N2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="P2" t="n">
         <v>686074.6097365057</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679702.4124909313</v>
+        <v>679702.4124909278</v>
       </c>
       <c r="C3" t="n">
-        <v>366.4703680922721</v>
+        <v>366.4703680956449</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059434</v>
+        <v>391128.3638059436</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68912.53318642153</v>
+        <v>68912.53318642054</v>
       </c>
       <c r="K3" t="n">
-        <v>85.20559774217148</v>
+        <v>85.20559774301999</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756977</v>
+        <v>95382.64613756978</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289268</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>253116.5477674026</v>
+        <v>253116.5477674035</v>
       </c>
       <c r="C4" t="n">
         <v>253016.7649073352</v>
       </c>
       <c r="D4" t="n">
-        <v>142746.9572676995</v>
+        <v>142746.9572676994</v>
       </c>
       <c r="E4" t="n">
+        <v>12386.92018181795</v>
+      </c>
+      <c r="F4" t="n">
+        <v>12386.92018181795</v>
+      </c>
+      <c r="G4" t="n">
+        <v>12386.92018181808</v>
+      </c>
+      <c r="H4" t="n">
         <v>12386.92018181809</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
+        <v>12386.92018181809</v>
+      </c>
+      <c r="J4" t="n">
         <v>12386.92018181813</v>
-      </c>
-      <c r="G4" t="n">
-        <v>12386.92018181809</v>
-      </c>
-      <c r="H4" t="n">
-        <v>12386.92018181813</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12386.92018181813</v>
-      </c>
-      <c r="J4" t="n">
-        <v>12386.92018181809</v>
       </c>
       <c r="K4" t="n">
         <v>12386.92018181813</v>
@@ -26453,7 +26453,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="N4" t="n">
-        <v>12386.9201818181</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="O4" t="n">
         <v>12386.92018181813</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63021.46164557702</v>
+        <v>63021.46164557678</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-297954.9175192698</v>
+        <v>-297954.9175192673</v>
       </c>
       <c r="C6" t="n">
-        <v>381454.465904947</v>
+        <v>381454.4659049437</v>
       </c>
       <c r="D6" t="n">
-        <v>71072.41087115314</v>
+        <v>71072.41087115271</v>
       </c>
       <c r="E6" t="n">
-        <v>64732.33885187731</v>
+        <v>65044.98018079891</v>
       </c>
       <c r="F6" t="n">
-        <v>572217.7804764237</v>
+        <v>572530.421805345</v>
       </c>
       <c r="G6" t="n">
-        <v>572217.7804764234</v>
+        <v>572530.4218053452</v>
       </c>
       <c r="H6" t="n">
-        <v>572217.7804764236</v>
+        <v>572530.4218053449</v>
       </c>
       <c r="I6" t="n">
-        <v>572217.7804764234</v>
+        <v>572530.4218053449</v>
       </c>
       <c r="J6" t="n">
-        <v>503305.2472900022</v>
+        <v>503617.8886189241</v>
       </c>
       <c r="K6" t="n">
-        <v>572132.5748786812</v>
+        <v>572445.2162076017</v>
       </c>
       <c r="L6" t="n">
-        <v>476835.1343388536</v>
+        <v>477147.775667775</v>
       </c>
       <c r="M6" t="n">
-        <v>439610.4867474968</v>
+        <v>439923.1280764178</v>
       </c>
       <c r="N6" t="n">
-        <v>572217.7804764234</v>
+        <v>572530.4218053448</v>
       </c>
       <c r="O6" t="n">
-        <v>572217.7804764236</v>
+        <v>572530.4218053449</v>
       </c>
       <c r="P6" t="n">
-        <v>572217.7804764236</v>
+        <v>572530.4218053449</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960526</v>
+        <v>613.7700232960501</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651822</v>
+        <v>263.3828147651791</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26813,19 +26813,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-3.016897076984856e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-3.016897076984856e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960526</v>
+        <v>613.7700232960501</v>
       </c>
       <c r="C3" t="n">
-        <v>0.284990473425637</v>
+        <v>0.2849904734282518</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480609</v>
+        <v>320.0098783480611</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241348</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,13 +26977,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>-1.266154984183845e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651822</v>
+        <v>263.3828147651791</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3310652363239797</v>
+        <v>0.3310652363270492</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.8709520985329</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.12345599961</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651824</v>
+        <v>263.3828147651791</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363237523</v>
+        <v>0.3310652363270492</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985328</v>
+        <v>376.8709520985329</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.12345599961</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651822</v>
+        <v>263.3828147651791</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363239797</v>
+        <v>0.3310652363270492</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.8709520985329</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.12345599961</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>119.3510268983014</v>
       </c>
       <c r="C2" t="n">
-        <v>101.8900770058254</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>392.5457330903587</v>
+        <v>340.5175834505662</v>
       </c>
       <c r="H2" t="n">
-        <v>314.2053659305181</v>
+        <v>314.2053659305182</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3507887739397</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2947308627104</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1482595335101</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.36944370495576</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>122.8551238908744</v>
       </c>
     </row>
     <row r="3">
@@ -27460,25 +27460,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>67.74668731541591</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0233325848002</v>
+        <v>12.78104714995422</v>
       </c>
       <c r="H3" t="n">
-        <v>99.48524054500676</v>
+        <v>99.48524054500682</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94290942807532</v>
+        <v>43.94290942807551</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,25 +27508,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1613215881891</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8434583985096</v>
       </c>
       <c r="U3" t="n">
         <v>225.8545278323952</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.990624783704</v>
+        <v>166.8841809557937</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3867285273815</v>
+        <v>152.3867285273816</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1660284180232</v>
+        <v>122.1660284180233</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5277104718863</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7281204196193</v>
+        <v>204.7281204196194</v>
       </c>
       <c r="T4" t="n">
         <v>223.2165417078037</v>
@@ -27596,7 +27596,7 @@
         <v>286.2586585345273</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>160.1871442715419</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>149.1202946442039</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>64.03837846862876</v>
+        <v>64.03837846862871</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590681</v>
       </c>
       <c r="X5" t="n">
-        <v>247.0688683385275</v>
+        <v>157.162135560564</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27712,10 +27712,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27760,7 +27760,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>195.5884214778211</v>
+        <v>195.5884214778209</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27833,16 +27833,16 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>183.7775999527744</v>
       </c>
       <c r="W7" t="n">
-        <v>47.87668130799369</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>133.0354323028066</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>87.71847392348781</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>5.905111928576602</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,13 +28067,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>195.5290386500997</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28149,10 +28149,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-8.44124770082999e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-1.276641960180974e-14</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28247,10 +28247,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-1.146420889254242e-13</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-1.146420889254245e-13</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -28262,13 +28262,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-1.146420889254245e-13</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-1.146420889254245e-13</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28304,13 +28304,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-1.146420889254245e-13</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>-1.146420889254245e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>-1.146420889254245e-13</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -28532,28 +28532,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>-4.25898111698296e-14</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>-1.146420889254245e-13</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>-1.146420889254245e-13</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>-1.146420889254245e-13</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>-1.146420889254245e-13</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>-1.146420889254245e-13</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>-1.146420889254245e-13</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>-1.146420889254245e-13</v>
       </c>
     </row>
     <row r="17">
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28985,49 +28985,49 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>-1.432832936654913e-14</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>-1.146420889254245e-13</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>-1.146420889254245e-13</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>-1.146420889254245e-13</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>-1.146420889254245e-13</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>-1.146420889254245e-13</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>-1.146420889254245e-13</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>-1.146420889254245e-13</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>-1.146420889254245e-13</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>-1.146420889254245e-13</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>-1.146420889254245e-13</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>-1.146420889254245e-13</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>-1.146420889254245e-13</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>-1.146420889254245e-13</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>-1.146420889254245e-13</v>
       </c>
     </row>
     <row r="23">
@@ -30225,7 +30225,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>-3.731285313764596e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467417179079606</v>
+        <v>2.467417179079597</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26943618524903</v>
+        <v>25.26943618524892</v>
       </c>
       <c r="I2" t="n">
-        <v>95.12510079646663</v>
+        <v>95.12510079646624</v>
       </c>
       <c r="J2" t="n">
-        <v>209.4189488029079</v>
+        <v>209.4189488029071</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8647179933478</v>
+        <v>313.8647179933465</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3769364876053</v>
+        <v>389.3769364876038</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2568667460623</v>
+        <v>433.2568667460606</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2674158061222</v>
+        <v>440.2674158061205</v>
       </c>
       <c r="O2" t="n">
-        <v>415.7320362316494</v>
+        <v>415.7320362316477</v>
       </c>
       <c r="P2" t="n">
-        <v>354.8176746231215</v>
+        <v>354.8176746231201</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4532968973331</v>
+        <v>266.453296897332</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9938943753595</v>
+        <v>154.9938943753588</v>
       </c>
       <c r="S2" t="n">
-        <v>56.22626896827659</v>
+        <v>56.22626896827637</v>
       </c>
       <c r="T2" t="n">
-        <v>10.80111870142098</v>
+        <v>10.80111870142094</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973933743263685</v>
+        <v>0.1973933743263677</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320184578410377</v>
+        <v>1.320184578410372</v>
       </c>
       <c r="H3" t="n">
-        <v>12.7502036914897</v>
+        <v>12.75020369148965</v>
       </c>
       <c r="I3" t="n">
-        <v>45.45372342333975</v>
+        <v>45.45372342333957</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7284912435875</v>
+        <v>124.728491243587</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1808579970827</v>
+        <v>213.1808579970819</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6479717289725</v>
+        <v>286.6479717289714</v>
       </c>
       <c r="M3" t="n">
-        <v>334.5046626963486</v>
+        <v>334.5046626963473</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3580057682323</v>
+        <v>343.3580057682309</v>
       </c>
       <c r="O3" t="n">
-        <v>314.1054948466129</v>
+        <v>314.1054948466116</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0973516439957</v>
+        <v>252.0973516439946</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.520403377437</v>
+        <v>168.5204033774363</v>
       </c>
       <c r="R3" t="n">
-        <v>81.96724952621626</v>
+        <v>81.96724952621594</v>
       </c>
       <c r="S3" t="n">
-        <v>24.52184951564888</v>
+        <v>24.52184951564878</v>
       </c>
       <c r="T3" t="n">
-        <v>5.321270296312002</v>
+        <v>5.32127029631198</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08685424857963013</v>
+        <v>0.08685424857962977</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.106798402665013</v>
+        <v>1.106798402665008</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84044398005803</v>
+        <v>9.840443980057989</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28444650923512</v>
+        <v>33.28444650923499</v>
       </c>
       <c r="J4" t="n">
-        <v>78.2506470684164</v>
+        <v>78.25064706841609</v>
       </c>
       <c r="K4" t="n">
-        <v>128.5898507823533</v>
+        <v>128.5898507823528</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5507370653057</v>
+        <v>164.550737065305</v>
       </c>
       <c r="M4" t="n">
-        <v>173.495680519571</v>
+        <v>173.4956805195703</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3703410187289</v>
+        <v>169.3703410187282</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4409233148693</v>
+        <v>156.4409233148687</v>
       </c>
       <c r="P4" t="n">
-        <v>133.862235900503</v>
+        <v>133.8622359005024</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.67927351770395</v>
+        <v>92.67927351770356</v>
       </c>
       <c r="R4" t="n">
-        <v>49.7656809052832</v>
+        <v>49.765680905283</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28847761735299</v>
+        <v>19.28847761735291</v>
       </c>
       <c r="T4" t="n">
-        <v>4.729047720477781</v>
+        <v>4.729047720477761</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06037082196354622</v>
+        <v>0.06037082196354598</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,25 +31679,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,25 +31837,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,7 +31867,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,25 +32074,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>175.6052721551095</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,7 +32104,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32171,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817571</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.37304427622166</v>
+        <v>28.37304427622081</v>
       </c>
       <c r="K2" t="n">
-        <v>93.77486694836722</v>
+        <v>93.77486694836591</v>
       </c>
       <c r="L2" t="n">
-        <v>153.6105215176181</v>
+        <v>153.6105215176165</v>
       </c>
       <c r="M2" t="n">
-        <v>202.9106335187896</v>
+        <v>202.9106335187878</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8543522095313</v>
+        <v>210.8543522095296</v>
       </c>
       <c r="O2" t="n">
-        <v>185.6338248099626</v>
+        <v>185.633824809961</v>
       </c>
       <c r="P2" t="n">
-        <v>123.584678867852</v>
+        <v>123.5846788678506</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.14760702288359</v>
+        <v>44.14760702288251</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>172.2381908396494</v>
+        <v>75.33941902272289</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0935919490984</v>
+        <v>148.0935919490972</v>
       </c>
       <c r="M3" t="n">
-        <v>192.3706287743303</v>
+        <v>192.370628774329</v>
       </c>
       <c r="N3" t="n">
-        <v>212.016293684899</v>
+        <v>212.0162936848976</v>
       </c>
       <c r="O3" t="n">
-        <v>171.5092504021684</v>
+        <v>171.5092504021672</v>
       </c>
       <c r="P3" t="n">
-        <v>118.1229442296654</v>
+        <v>118.1229442296644</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.53862929141545</v>
+        <v>125.4374011083362</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3203589564704</v>
+        <v>106.3203589564699</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1407623256218</v>
+        <v>192.1407623256211</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0795574814116</v>
+        <v>213.0795574814109</v>
       </c>
       <c r="N4" t="n">
-        <v>212.6647737474075</v>
+        <v>213.5025133979568</v>
       </c>
       <c r="O4" t="n">
-        <v>181.026051228909</v>
+        <v>181.0260512289084</v>
       </c>
       <c r="P4" t="n">
-        <v>131.1407951653964</v>
+        <v>130.3030555148383</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.517230266009562</v>
+        <v>6.517230266009179</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35035,7 +35035,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877688</v>
+        <v>125.9385470877689</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>187.5431097317923</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075054</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295325</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295325</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367765</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -38031,7 +38031,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
